--- a/inst/doc/xlsx/LOBSTAHS_componentCompTable.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_componentCompTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\R\LOBDBase Update, MAG, DAG, Lyso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\R\LOBDBase Update, MAG, DAG, Lyso\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Exact masses of basic species " sheetId="3" r:id="rId3"/>
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="227">
   <si>
     <t>DGCC</t>
   </si>
@@ -662,9 +662,6 @@
     <t>WaxEster</t>
   </si>
   <si>
-    <t>ChlorestorolAcetate</t>
-  </si>
-  <si>
     <t>sterol</t>
   </si>
   <si>
@@ -707,10 +704,13 @@
     <t>LMGDG</t>
   </si>
   <si>
-    <t>13C</t>
-  </si>
-  <si>
     <t>Added MAG, DAG, LysoIP_DAGs, Cholesterol/Coprostanols and esters, Astaxanthin, Bile Salts, Support for 2H and 13C Isotopes.</t>
+  </si>
+  <si>
+    <t>ChloresterolAcetate</t>
+  </si>
+  <si>
+    <t>C_thirteen</t>
   </si>
 </sst>
 </file>
@@ -1252,9 +1252,9 @@
   <dimension ref="A1:W151"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <pane ySplit="945" topLeftCell="A132" activePane="bottomLeft"/>
+      <pane ySplit="945" activePane="bottomLeft"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="A2:U143"/>
+      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1367,10 +1367,10 @@
         <v>175</v>
       </c>
       <c r="Q2" t="s">
-        <v>217</v>
-      </c>
-      <c r="R2" t="s">
-        <v>225</v>
+        <v>216</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>151</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B7">
         <v>29</v>
@@ -1717,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="U7" t="s">
         <v>161</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8">
         <v>27</v>
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
+        <v>210</v>
+      </c>
+      <c r="T8" t="s">
         <v>211</v>
-      </c>
-      <c r="T8" t="s">
-        <v>212</v>
       </c>
       <c r="U8" t="s">
         <v>161</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9">
         <v>27</v>
@@ -1858,7 +1858,7 @@
         <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U9" t="s">
         <v>160</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10">
         <v>27</v>
@@ -1927,7 +1927,7 @@
         <v>88</v>
       </c>
       <c r="T10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U10" t="s">
         <v>160</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12">
         <v>45</v>
@@ -11205,7 +11205,7 @@
   <dimension ref="A1:U150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11262,10 +11262,10 @@
         <v>175</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S1" t="s">
         <v>151</v>
@@ -11539,7 +11539,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -11593,10 +11593,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T6" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="U6" t="s">
         <v>161</v>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7">
         <v>27</v>
@@ -11658,10 +11658,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
+        <v>210</v>
+      </c>
+      <c r="T7" t="s">
         <v>211</v>
-      </c>
-      <c r="T7" t="s">
-        <v>212</v>
       </c>
       <c r="U7" t="s">
         <v>161</v>
@@ -11669,7 +11669,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8">
         <v>27</v>
@@ -11726,7 +11726,7 @@
         <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U8" t="s">
         <v>160</v>
@@ -11734,7 +11734,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9">
         <v>27</v>
@@ -11791,7 +11791,7 @@
         <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U9" t="s">
         <v>160</v>
@@ -11799,7 +11799,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -11864,7 +11864,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11">
         <v>45</v>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -12709,7 +12709,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -12839,7 +12839,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -13164,7 +13164,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31">
         <v>9</v>
@@ -13359,7 +13359,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34">
         <v>9</v>
@@ -20412,10 +20412,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20522,6 +20522,22 @@
       </c>
       <c r="B13">
         <v>27.97692649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14">
+        <v>2.0141019999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15">
+        <v>13.003355000000001</v>
       </c>
     </row>
   </sheetData>
@@ -20535,7 +20551,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20842,10 +20858,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>42925</v>
+        <v>42964</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s">
         <v>137</v>

--- a/inst/doc/xlsx/LOBSTAHS_componentCompTable.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_componentCompTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\R\LOBDBase Update, MAG, DAG, Lyso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrco/Code/LOBSTAHS/inst/doc/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11070" windowHeight="2700" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Elemental composition matrix" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Exact masses of basic species " sheetId="3" r:id="rId3"/>
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -707,16 +707,16 @@
     <t>Added MAG, DAG, LysoIP_DAGs, Cholesterol/Coprostanols and esters, Astaxanthin, Bile Salts, Support for 2H and 13C Isotopes.</t>
   </si>
   <si>
-    <t>ChloresterolAcetate</t>
-  </si>
-  <si>
     <t>C_thirteen</t>
+  </si>
+  <si>
+    <t>CholesterolAcetate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -1251,20 +1251,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <pane ySplit="945" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <pane ySplit="940" activePane="bottomLeft"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="18" width="4.5" customWidth="1"/>
     <col min="19" max="19" width="23.5" customWidth="1"/>
     <col min="20" max="20" width="19.5" customWidth="1"/>
-    <col min="21" max="21" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>151</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>29</v>
@@ -1720,7 +1720,7 @@
         <v>210</v>
       </c>
       <c r="T7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U7" t="s">
         <v>161</v>
@@ -2144,7 +2144,7 @@
         <v>32.997654283999999</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>281.111066741</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>266.12397715899999</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>446.12717036999999</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>431.14008078799998</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>265.11615211899999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>"L"&amp;A18</f>
         <v>LDGTS_DGTA</v>
@@ -2576,7 +2576,7 @@
         <v>250.12906253700001</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>857.51666203100001</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>122.02152335</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>201</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>107.034433768</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>202</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>596.38656056800005</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>245.03005297300001</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>"L"&amp;A24</f>
         <v>LPE</v>
@@ -3008,7 +3008,7 @@
         <v>230.042963391</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>276.024633252</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>"L"&amp;A26</f>
         <v>LPG</v>
@@ -3164,7 +3164,7 @@
         <v>261.03754366999999</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>287.07700321300001</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>272.089913631</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>348.03624679400002</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>"L"&amp;A31</f>
         <v>LSQDG</v>
@@ -3527,7 +3527,7 @@
         <v>333.04915721200001</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>892.53531701000009</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>284.07434685999999</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>"L"&amp;A34</f>
         <v>LMGDG</v>
@@ -3752,7 +3752,7 @@
         <v>269.08725727800004</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>41.026549125000003</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>59.013304364</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>-1.00727646009076</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>59.013852943909242</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>34.969401286909246</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>198.97555001490923</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>223.02000167190926</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>80.995797903909235</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>36.948605360909241</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>20.974668499909239</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>56.951346246909246</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>116.97247565090925</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>141.01692730790924</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>44.971166380090757</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>1.00727646009076</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>38.963158281090756</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>24</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>22.989221420090761</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>25</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>59.060374710090763</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>29</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>18.03382558509076</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>104.99229578409077</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>80.947844127090775</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>28</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>100.08692383509077</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>137.00861293200001</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>744.46011953599998</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>772.49141969599998</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>564.39673132400003</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>906.5145815520001</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>608.19101525000008</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>652.18084449399998</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>614.23796548999997</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>582.40729602600004</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>566.41238140400003</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>658.42334005199996</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>91</v>
       </c>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>92</v>
       </c>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>93</v>
       </c>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>94</v>
       </c>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>101</v>
       </c>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>95</v>
       </c>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>96</v>
       </c>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>97</v>
       </c>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>98</v>
       </c>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>100</v>
       </c>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>102</v>
       </c>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>104</v>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>122</v>
       </c>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>123</v>
       </c>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>124</v>
       </c>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>125</v>
       </c>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>126</v>
       </c>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>127</v>
       </c>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>128</v>
       </c>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>129</v>
       </c>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>130</v>
       </c>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>131</v>
       </c>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>132</v>
       </c>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>133</v>
       </c>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>134</v>
       </c>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>135</v>
       </c>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>106</v>
       </c>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>107</v>
       </c>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>108</v>
       </c>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>109</v>
       </c>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>110</v>
       </c>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>111</v>
       </c>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>112</v>
       </c>
@@ -9039,7 +9039,7 @@
       </c>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>113</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>522.37091048800005</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>114</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>590.43351080800005</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>115</v>
       </c>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>116</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>726.55871144800005</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>117</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>794.62131176800006</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>118</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>862.68391208800006</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>119</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>930.74651240800006</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>120</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>998.80911272800006</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>121</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>1066.8717130479999</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>174</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>444.11276917200001</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>176</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>518.13156403400001</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>177</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>592.15035889599994</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>178</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>666.16915375799999</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>179</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>740.18794862000004</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>180</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>814.20674348199998</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>181</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>888.22553834400003</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>182</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>962.24433320599996</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>183</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>1036.263128068</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>184</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>1110.2819229299998</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>185</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>1184.3007177919999</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>186</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>1258.3195126539999</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>187</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>1332.338307516</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>188</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>1406.357102378</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>189</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>1480.3758972400001</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>190</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>1554.3946921020001</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>191</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>1628.413486964</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>192</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>1702.432281826</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>193</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>1776.4510766880001</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>194</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>1850.4698715499999</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>195</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>1924.4886664119999</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>196</v>
       </c>
@@ -11179,19 +11179,19 @@
         <v>1998.507461274</v>
       </c>
     </row>
-    <row r="147" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V147" s="4"/>
     </row>
-    <row r="148" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V148" s="4"/>
     </row>
-    <row r="149" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V149" s="4"/>
     </row>
-    <row r="150" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V150" s="4"/>
     </row>
-    <row r="151" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V151" s="4"/>
     </row>
   </sheetData>
@@ -11205,17 +11205,17 @@
   <dimension ref="A1:U150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.625" customWidth="1"/>
-    <col min="19" max="19" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>216</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S1" t="s">
         <v>151</v>
@@ -11277,7 +11277,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>204</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>207</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>208</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -11537,9 +11537,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -11596,13 +11596,13 @@
         <v>210</v>
       </c>
       <c r="T6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>219</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>202</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>221</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>222</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>23</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>24</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>25</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>29</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>26</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>27</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>28</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>20</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
@@ -15956,7 +15956,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>91</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>93</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>101</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>95</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>96</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>97</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>98</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>100</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>102</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>104</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>122</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>123</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>124</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>125</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>126</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>127</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>128</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>129</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>130</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>131</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>132</v>
       </c>
@@ -17711,7 +17711,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>133</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>134</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>135</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>106</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>107</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>108</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>109</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>110</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>111</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>112</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>113</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>114</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>115</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>116</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>117</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>118</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>119</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>120</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>121</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>174</v>
       </c>
@@ -19011,7 +19011,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>176</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>177</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>178</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>179</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>180</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>181</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>182</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>183</v>
       </c>
@@ -19531,7 +19531,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>184</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>185</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>186</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>187</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>188</v>
       </c>
@@ -19856,7 +19856,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>189</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>190</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>191</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>192</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>193</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>194</v>
       </c>
@@ -20246,7 +20246,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>195</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>196</v>
       </c>
@@ -20376,32 +20376,32 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="R143" s="7"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="R144" s="7"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="R145" s="7"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="R146" s="7"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R147" s="7"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R148" s="7"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R149" s="7"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R150" s="7"/>
     </row>
   </sheetData>
@@ -20418,7 +20418,7 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -20436,7 +20436,7 @@
         <v>1.00727646677</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -20444,7 +20444,7 @@
         <v>1.0078250399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>14.003074005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -20460,7 +20460,7 @@
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>30.973761511999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>31.972070689999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -20484,7 +20484,7 @@
         <v>22.98977</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>34.968852707000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>38.963706860999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>5.4857990924000002E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>23.985045</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>27.97692649</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -20532,9 +20532,9 @@
         <v>2.0141019999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15">
         <v>13.003355000000001</v>
@@ -20550,14 +20550,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="167.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="167.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20605,27 +20605,27 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>42327</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>42328</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>42329</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>42344</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>42344</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>42371</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>42607</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>42624</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>42709</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>42719</v>
       </c>
@@ -20746,7 +20746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>42758</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>42758</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>42758</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>42758</v>
       </c>
@@ -20790,7 +20790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>42758</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>42759</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>42759</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>42760</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>42769</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>42779</v>
       </c>
@@ -20856,7 +20856,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>42964</v>
       </c>

--- a/inst/doc/xlsx/LOBSTAHS_componentCompTable.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_componentCompTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrco/Code/LOBSTAHS/inst/doc/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\R\LOBDBase Update, MAG, DAG, Lyso\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11070" windowHeight="2700" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Elemental composition matrix" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Exact masses of basic species " sheetId="3" r:id="rId3"/>
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -707,16 +707,16 @@
     <t>Added MAG, DAG, LysoIP_DAGs, Cholesterol/Coprostanols and esters, Astaxanthin, Bile Salts, Support for 2H and 13C Isotopes.</t>
   </si>
   <si>
+    <t>ChloresterolAcetate</t>
+  </si>
+  <si>
     <t>C_thirteen</t>
-  </si>
-  <si>
-    <t>CholesterolAcetate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -1251,20 +1251,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <pane ySplit="940" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <pane ySplit="945" activePane="bottomLeft"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
     <col min="3" max="18" width="4.5" customWidth="1"/>
     <col min="19" max="19" width="23.5" customWidth="1"/>
     <col min="20" max="20" width="19.5" customWidth="1"/>
-    <col min="21" max="21" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>151</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7">
         <v>29</v>
@@ -1720,7 +1720,7 @@
         <v>210</v>
       </c>
       <c r="T7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U7" t="s">
         <v>161</v>
@@ -2144,7 +2144,7 @@
         <v>32.997654283999999</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>281.111066741</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>266.12397715899999</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>446.12717036999999</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>431.14008078799998</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>265.11615211899999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>"L"&amp;A18</f>
         <v>LDGTS_DGTA</v>
@@ -2576,7 +2576,7 @@
         <v>250.12906253700001</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>857.51666203100001</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>122.02152335</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>201</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>107.034433768</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>202</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>596.38656056800005</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>245.03005297300001</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>"L"&amp;A24</f>
         <v>LPE</v>
@@ -3008,7 +3008,7 @@
         <v>230.042963391</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>276.024633252</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>"L"&amp;A26</f>
         <v>LPG</v>
@@ -3164,7 +3164,7 @@
         <v>261.03754366999999</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>287.07700321300001</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>272.089913631</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>348.03624679400002</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>"L"&amp;A31</f>
         <v>LSQDG</v>
@@ -3527,7 +3527,7 @@
         <v>333.04915721200001</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>892.53531701000009</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>284.07434685999999</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>"L"&amp;A34</f>
         <v>LMGDG</v>
@@ -3752,7 +3752,7 @@
         <v>269.08725727800004</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>41.026549125000003</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>59.013304364</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>-1.00727646009076</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>59.013852943909242</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>34.969401286909246</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>198.97555001490923</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>223.02000167190926</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>80.995797903909235</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>36.948605360909241</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>20.974668499909239</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>56.951346246909246</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>116.97247565090925</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>141.01692730790924</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>44.971166380090757</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>1.00727646009076</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>38.963158281090756</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>24</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>22.989221420090761</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>25</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>59.060374710090763</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>29</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>18.03382558509076</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>104.99229578409077</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>80.947844127090775</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>28</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>100.08692383509077</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>137.00861293200001</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>744.46011953599998</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>772.49141969599998</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>564.39673132400003</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>906.5145815520001</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>608.19101525000008</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>652.18084449399998</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>614.23796548999997</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>582.40729602600004</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>566.41238140400003</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>658.42334005199996</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>91</v>
       </c>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>92</v>
       </c>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>93</v>
       </c>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>94</v>
       </c>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>101</v>
       </c>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>95</v>
       </c>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>96</v>
       </c>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>97</v>
       </c>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>98</v>
       </c>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>100</v>
       </c>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>102</v>
       </c>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>104</v>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>122</v>
       </c>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>123</v>
       </c>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>124</v>
       </c>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>125</v>
       </c>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>126</v>
       </c>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>127</v>
       </c>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>128</v>
       </c>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>129</v>
       </c>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>130</v>
       </c>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>131</v>
       </c>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>132</v>
       </c>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>133</v>
       </c>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>134</v>
       </c>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>135</v>
       </c>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>106</v>
       </c>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>107</v>
       </c>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>108</v>
       </c>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>109</v>
       </c>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>110</v>
       </c>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>111</v>
       </c>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>112</v>
       </c>
@@ -9039,7 +9039,7 @@
       </c>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>113</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>522.37091048800005</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>114</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>590.43351080800005</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>115</v>
       </c>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>116</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>726.55871144800005</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>117</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>794.62131176800006</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>118</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>862.68391208800006</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>119</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>930.74651240800006</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>120</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>998.80911272800006</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>121</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>1066.8717130479999</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>174</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>444.11276917200001</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>176</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>518.13156403400001</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>177</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>592.15035889599994</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>178</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>666.16915375799999</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>179</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>740.18794862000004</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>180</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>814.20674348199998</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>181</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>888.22553834400003</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>182</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>962.24433320599996</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>183</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>1036.263128068</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>184</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>1110.2819229299998</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>185</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>1184.3007177919999</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>186</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>1258.3195126539999</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>187</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>1332.338307516</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>188</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>1406.357102378</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>189</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>1480.3758972400001</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>190</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>1554.3946921020001</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>191</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>1628.413486964</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>192</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>1702.432281826</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>193</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>1776.4510766880001</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>194</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>1850.4698715499999</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>195</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>1924.4886664119999</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>196</v>
       </c>
@@ -11179,19 +11179,19 @@
         <v>1998.507461274</v>
       </c>
     </row>
-    <row r="147" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="147" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V147" s="4"/>
     </row>
-    <row r="148" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="148" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V148" s="4"/>
     </row>
-    <row r="149" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="149" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V149" s="4"/>
     </row>
-    <row r="150" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="150" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V150" s="4"/>
     </row>
-    <row r="151" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="151" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V151" s="4"/>
     </row>
   </sheetData>
@@ -11205,17 +11205,17 @@
   <dimension ref="A1:U150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.625" customWidth="1"/>
+    <col min="19" max="19" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>216</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S1" t="s">
         <v>151</v>
@@ -11277,7 +11277,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>204</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>207</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>208</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -11537,9 +11537,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -11596,13 +11596,13 @@
         <v>210</v>
       </c>
       <c r="T6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>219</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>202</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>221</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>222</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>23</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>24</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>25</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>29</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>26</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>27</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>28</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>20</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
@@ -15956,7 +15956,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>91</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>93</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>101</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>95</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>96</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>97</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>98</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>100</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>102</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>104</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>122</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>123</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>124</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>125</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>126</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>127</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>128</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>129</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>130</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>131</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>132</v>
       </c>
@@ -17711,7 +17711,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>133</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>134</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>135</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>106</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>107</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>108</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>109</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>110</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>111</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>112</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>113</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>114</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>115</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>116</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>117</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>118</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>119</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>120</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>121</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>174</v>
       </c>
@@ -19011,7 +19011,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>176</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>177</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>178</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>179</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>180</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>181</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>182</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>183</v>
       </c>
@@ -19531,7 +19531,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>184</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>185</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>186</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>187</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>188</v>
       </c>
@@ -19856,7 +19856,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>189</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>190</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>191</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>192</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>193</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>194</v>
       </c>
@@ -20246,7 +20246,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>195</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>196</v>
       </c>
@@ -20376,32 +20376,32 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="R143" s="7"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="R144" s="7"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="R145" s="7"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="R146" s="7"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R147" s="7"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R148" s="7"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R149" s="7"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R150" s="7"/>
     </row>
   </sheetData>
@@ -20418,7 +20418,7 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -20436,7 +20436,7 @@
         <v>1.00727646677</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -20444,7 +20444,7 @@
         <v>1.0078250399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>14.003074005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -20460,7 +20460,7 @@
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>30.973761511999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>31.972070689999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -20484,7 +20484,7 @@
         <v>22.98977</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>34.968852707000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>38.963706860999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>5.4857990924000002E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>23.985045</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>27.97692649</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -20532,9 +20532,9 @@
         <v>2.0141019999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B15">
         <v>13.003355000000001</v>
@@ -20550,14 +20550,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="167.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="167.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20605,27 +20605,27 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>42327</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>42328</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>42329</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>42344</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>42344</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>42371</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>42607</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>42624</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>42709</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>42719</v>
       </c>
@@ -20746,7 +20746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>42758</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>42758</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>42758</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>42758</v>
       </c>
@@ -20790,7 +20790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>42758</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>42759</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>42759</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>42760</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>42769</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>42779</v>
       </c>
@@ -20856,7 +20856,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>42964</v>
       </c>

--- a/inst/doc/xlsx/LOBSTAHS_componentCompTable.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_componentCompTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\R\LOBDBase Update, MAG, DAG, Lyso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrco/Code/LOBSTAHS/inst/doc/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11070" windowHeight="2700" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="38240" yWindow="-1580" windowWidth="29980" windowHeight="19600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Elemental composition matrix" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Exact masses of basic species " sheetId="3" r:id="rId3"/>
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="228">
   <si>
     <t>DGCC</t>
   </si>
@@ -707,16 +707,19 @@
     <t>Added MAG, DAG, LysoIP_DAGs, Cholesterol/Coprostanols and esters, Astaxanthin, Bile Salts, Support for 2H and 13C Isotopes.</t>
   </si>
   <si>
-    <t>ChloresterolAcetate</t>
-  </si>
-  <si>
     <t>C_thirteen</t>
+  </si>
+  <si>
+    <t>Fixed spelling error</t>
+  </si>
+  <si>
+    <t>CholesterolAcetate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -1252,19 +1255,19 @@
   <dimension ref="A1:W151"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <pane ySplit="945" activePane="bottomLeft"/>
+      <pane ySplit="940" activePane="bottomLeft"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="18" width="4.5" customWidth="1"/>
     <col min="19" max="19" width="23.5" customWidth="1"/>
     <col min="20" max="20" width="19.5" customWidth="1"/>
-    <col min="21" max="21" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1370,7 +1373,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>151</v>
@@ -1663,7 +1666,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B7">
         <v>29</v>
@@ -1720,7 +1723,7 @@
         <v>210</v>
       </c>
       <c r="T7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="U7" t="s">
         <v>161</v>
@@ -2144,7 +2147,7 @@
         <v>32.997654283999999</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>281.111066741</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>266.12397715899999</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>446.12717036999999</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>431.14008078799998</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>265.11615211899999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>"L"&amp;A18</f>
         <v>LDGTS_DGTA</v>
@@ -2576,7 +2579,7 @@
         <v>250.12906253700001</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>857.51666203100001</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>122.02152335</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>201</v>
       </c>
@@ -2783,7 +2786,7 @@
         <v>107.034433768</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>202</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>596.38656056800005</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>245.03005297300001</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>"L"&amp;A24</f>
         <v>LPE</v>
@@ -3008,7 +3011,7 @@
         <v>230.042963391</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>276.024633252</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>"L"&amp;A26</f>
         <v>LPG</v>
@@ -3164,7 +3167,7 @@
         <v>261.03754366999999</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>287.07700321300001</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>272.089913631</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>348.03624679400002</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>"L"&amp;A31</f>
         <v>LSQDG</v>
@@ -3527,7 +3530,7 @@
         <v>333.04915721200001</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -3596,7 +3599,7 @@
         <v>892.53531701000009</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>284.07434685999999</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>"L"&amp;A34</f>
         <v>LMGDG</v>
@@ -3752,7 +3755,7 @@
         <v>269.08725727800004</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>41.026549125000003</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>59.013304364</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>-1.00727646009076</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>59.013852943909242</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>34.969401286909246</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>198.97555001490923</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>223.02000167190926</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>80.995797903909235</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>36.948605360909241</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>20.974668499909239</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>56.951346246909246</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>116.97247565090925</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>141.01692730790924</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>44.971166380090757</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -4742,7 +4745,7 @@
         <v>1.00727646009076</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>38.963158281090756</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>24</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>22.989221420090761</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>25</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>59.060374710090763</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>29</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>18.03382558509076</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>104.99229578409077</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -5138,7 +5141,7 @@
         <v>80.947844127090775</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>28</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>100.08692383509077</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>137.00861293200001</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -5342,7 +5345,7 @@
         <v>744.46011953599998</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -5411,7 +5414,7 @@
         <v>772.49141969599998</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -5480,7 +5483,7 @@
         <v>564.39673132400003</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v>906.5145815520001</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>608.19101525000008</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>652.18084449399998</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>614.23796548999997</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -5963,7 +5966,7 @@
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>582.40729602600004</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -6101,7 +6104,7 @@
         <v>566.41238140400003</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>658.42334005199996</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -6309,7 +6312,7 @@
       </c>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -6379,7 +6382,7 @@
       </c>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -6449,7 +6452,7 @@
       </c>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -6519,7 +6522,7 @@
       </c>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -6589,7 +6592,7 @@
       </c>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -6659,7 +6662,7 @@
       </c>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -6729,7 +6732,7 @@
       </c>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>91</v>
       </c>
@@ -6799,7 +6802,7 @@
       </c>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>92</v>
       </c>
@@ -6869,7 +6872,7 @@
       </c>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>93</v>
       </c>
@@ -6939,7 +6942,7 @@
       </c>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>94</v>
       </c>
@@ -7009,7 +7012,7 @@
       </c>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>101</v>
       </c>
@@ -7079,7 +7082,7 @@
       </c>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>95</v>
       </c>
@@ -7149,7 +7152,7 @@
       </c>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>96</v>
       </c>
@@ -7219,7 +7222,7 @@
       </c>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>97</v>
       </c>
@@ -7289,7 +7292,7 @@
       </c>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>98</v>
       </c>
@@ -7359,7 +7362,7 @@
       </c>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>100</v>
       </c>
@@ -7429,7 +7432,7 @@
       </c>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>102</v>
       </c>
@@ -7499,7 +7502,7 @@
       </c>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>104</v>
       </c>
@@ -7569,7 +7572,7 @@
       </c>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>122</v>
       </c>
@@ -7639,7 +7642,7 @@
       </c>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>123</v>
       </c>
@@ -7709,7 +7712,7 @@
       </c>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>124</v>
       </c>
@@ -7779,7 +7782,7 @@
       </c>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>125</v>
       </c>
@@ -7849,7 +7852,7 @@
       </c>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>126</v>
       </c>
@@ -7919,7 +7922,7 @@
       </c>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>127</v>
       </c>
@@ -7989,7 +7992,7 @@
       </c>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>128</v>
       </c>
@@ -8059,7 +8062,7 @@
       </c>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>129</v>
       </c>
@@ -8129,7 +8132,7 @@
       </c>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>130</v>
       </c>
@@ -8199,7 +8202,7 @@
       </c>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>131</v>
       </c>
@@ -8269,7 +8272,7 @@
       </c>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>132</v>
       </c>
@@ -8339,7 +8342,7 @@
       </c>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>133</v>
       </c>
@@ -8409,7 +8412,7 @@
       </c>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>134</v>
       </c>
@@ -8479,7 +8482,7 @@
       </c>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>135</v>
       </c>
@@ -8549,7 +8552,7 @@
       </c>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>106</v>
       </c>
@@ -8619,7 +8622,7 @@
       </c>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>107</v>
       </c>
@@ -8689,7 +8692,7 @@
       </c>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>108</v>
       </c>
@@ -8759,7 +8762,7 @@
       </c>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>109</v>
       </c>
@@ -8829,7 +8832,7 @@
       </c>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>110</v>
       </c>
@@ -8899,7 +8902,7 @@
       </c>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>111</v>
       </c>
@@ -8969,7 +8972,7 @@
       </c>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>112</v>
       </c>
@@ -9039,7 +9042,7 @@
       </c>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>113</v>
       </c>
@@ -9108,7 +9111,7 @@
         <v>522.37091048800005</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>114</v>
       </c>
@@ -9177,7 +9180,7 @@
         <v>590.43351080800005</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>115</v>
       </c>
@@ -9247,7 +9250,7 @@
       </c>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>116</v>
       </c>
@@ -9316,7 +9319,7 @@
         <v>726.55871144800005</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>117</v>
       </c>
@@ -9385,7 +9388,7 @@
         <v>794.62131176800006</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>118</v>
       </c>
@@ -9454,7 +9457,7 @@
         <v>862.68391208800006</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>119</v>
       </c>
@@ -9523,7 +9526,7 @@
         <v>930.74651240800006</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>120</v>
       </c>
@@ -9592,7 +9595,7 @@
         <v>998.80911272800006</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>121</v>
       </c>
@@ -9661,7 +9664,7 @@
         <v>1066.8717130479999</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>174</v>
       </c>
@@ -9730,7 +9733,7 @@
         <v>444.11276917200001</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>176</v>
       </c>
@@ -9799,7 +9802,7 @@
         <v>518.13156403400001</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>177</v>
       </c>
@@ -9868,7 +9871,7 @@
         <v>592.15035889599994</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>178</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>666.16915375799999</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>179</v>
       </c>
@@ -10006,7 +10009,7 @@
         <v>740.18794862000004</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>180</v>
       </c>
@@ -10075,7 +10078,7 @@
         <v>814.20674348199998</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>181</v>
       </c>
@@ -10144,7 +10147,7 @@
         <v>888.22553834400003</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>182</v>
       </c>
@@ -10213,7 +10216,7 @@
         <v>962.24433320599996</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>183</v>
       </c>
@@ -10282,7 +10285,7 @@
         <v>1036.263128068</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>184</v>
       </c>
@@ -10351,7 +10354,7 @@
         <v>1110.2819229299998</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>185</v>
       </c>
@@ -10420,7 +10423,7 @@
         <v>1184.3007177919999</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>186</v>
       </c>
@@ -10489,7 +10492,7 @@
         <v>1258.3195126539999</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>187</v>
       </c>
@@ -10558,7 +10561,7 @@
         <v>1332.338307516</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>188</v>
       </c>
@@ -10627,7 +10630,7 @@
         <v>1406.357102378</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>189</v>
       </c>
@@ -10696,7 +10699,7 @@
         <v>1480.3758972400001</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>190</v>
       </c>
@@ -10765,7 +10768,7 @@
         <v>1554.3946921020001</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>191</v>
       </c>
@@ -10834,7 +10837,7 @@
         <v>1628.413486964</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>192</v>
       </c>
@@ -10903,7 +10906,7 @@
         <v>1702.432281826</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>193</v>
       </c>
@@ -10972,7 +10975,7 @@
         <v>1776.4510766880001</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>194</v>
       </c>
@@ -11041,7 +11044,7 @@
         <v>1850.4698715499999</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>195</v>
       </c>
@@ -11110,7 +11113,7 @@
         <v>1924.4886664119999</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>196</v>
       </c>
@@ -11179,19 +11182,19 @@
         <v>1998.507461274</v>
       </c>
     </row>
-    <row r="147" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V147" s="4"/>
     </row>
-    <row r="148" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V148" s="4"/>
     </row>
-    <row r="149" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V149" s="4"/>
     </row>
-    <row r="150" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V150" s="4"/>
     </row>
-    <row r="151" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V151" s="4"/>
     </row>
   </sheetData>
@@ -11204,18 +11207,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.625" customWidth="1"/>
-    <col min="19" max="19" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -11265,7 +11268,7 @@
         <v>216</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S1" t="s">
         <v>151</v>
@@ -11277,7 +11280,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>204</v>
       </c>
@@ -11342,7 +11345,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>207</v>
       </c>
@@ -11407,7 +11410,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>208</v>
       </c>
@@ -11472,7 +11475,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -11537,9 +11540,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -11596,13 +11599,13 @@
         <v>210</v>
       </c>
       <c r="T6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="U6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -11667,7 +11670,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -11732,7 +11735,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -11797,7 +11800,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -11862,7 +11865,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -11927,7 +11930,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -11992,7 +11995,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -12057,7 +12060,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -12122,7 +12125,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -12187,7 +12190,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -12252,7 +12255,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -12317,7 +12320,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>219</v>
       </c>
@@ -12382,7 +12385,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -12447,7 +12450,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -12512,7 +12515,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -12577,7 +12580,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>202</v>
       </c>
@@ -12642,7 +12645,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -12707,7 +12710,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -12772,7 +12775,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -12837,7 +12840,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>221</v>
       </c>
@@ -12902,7 +12905,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -12967,7 +12970,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -13032,7 +13035,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -13097,7 +13100,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -13162,7 +13165,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>222</v>
       </c>
@@ -13227,7 +13230,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -13292,7 +13295,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -13357,7 +13360,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -13422,7 +13425,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -13484,7 +13487,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -13546,7 +13549,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -13608,7 +13611,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -13670,7 +13673,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -13732,7 +13735,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -13794,7 +13797,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -13856,7 +13859,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
@@ -13918,7 +13921,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -13980,7 +13983,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -14042,7 +14045,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -14104,7 +14107,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -14166,7 +14169,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
@@ -14228,7 +14231,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -14290,7 +14293,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
@@ -14352,7 +14355,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>23</v>
       </c>
@@ -14414,7 +14417,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>24</v>
       </c>
@@ -14476,7 +14479,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>25</v>
       </c>
@@ -14538,7 +14541,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>29</v>
       </c>
@@ -14600,7 +14603,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>26</v>
       </c>
@@ -14662,7 +14665,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>27</v>
       </c>
@@ -14724,7 +14727,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>28</v>
       </c>
@@ -14786,7 +14789,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>20</v>
       </c>
@@ -14851,7 +14854,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -14916,7 +14919,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -14981,7 +14984,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -15046,7 +15049,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -15111,7 +15114,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -15176,7 +15179,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -15241,7 +15244,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -15306,7 +15309,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
@@ -15371,7 +15374,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -15436,7 +15439,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -15501,7 +15504,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
@@ -15566,7 +15569,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
@@ -15631,7 +15634,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
@@ -15696,7 +15699,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
@@ -15761,7 +15764,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
@@ -15826,7 +15829,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
@@ -15891,7 +15894,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
@@ -15956,7 +15959,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
@@ -16021,7 +16024,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
@@ -16086,7 +16089,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
@@ -16151,7 +16154,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
@@ -16216,7 +16219,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>91</v>
       </c>
@@ -16281,7 +16284,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -16346,7 +16349,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>93</v>
       </c>
@@ -16411,7 +16414,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -16476,7 +16479,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>101</v>
       </c>
@@ -16541,7 +16544,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>95</v>
       </c>
@@ -16606,7 +16609,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>96</v>
       </c>
@@ -16671,7 +16674,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>97</v>
       </c>
@@ -16736,7 +16739,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>98</v>
       </c>
@@ -16801,7 +16804,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>100</v>
       </c>
@@ -16866,7 +16869,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>102</v>
       </c>
@@ -16931,7 +16934,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>104</v>
       </c>
@@ -16996,7 +16999,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>122</v>
       </c>
@@ -17061,7 +17064,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>123</v>
       </c>
@@ -17126,7 +17129,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>124</v>
       </c>
@@ -17191,7 +17194,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>125</v>
       </c>
@@ -17256,7 +17259,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>126</v>
       </c>
@@ -17321,7 +17324,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>127</v>
       </c>
@@ -17386,7 +17389,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>128</v>
       </c>
@@ -17451,7 +17454,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>129</v>
       </c>
@@ -17516,7 +17519,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>130</v>
       </c>
@@ -17581,7 +17584,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>131</v>
       </c>
@@ -17646,7 +17649,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>132</v>
       </c>
@@ -17711,7 +17714,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>133</v>
       </c>
@@ -17776,7 +17779,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>134</v>
       </c>
@@ -17841,7 +17844,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>135</v>
       </c>
@@ -17906,7 +17909,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>106</v>
       </c>
@@ -17971,7 +17974,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>107</v>
       </c>
@@ -18036,7 +18039,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>108</v>
       </c>
@@ -18101,7 +18104,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>109</v>
       </c>
@@ -18166,7 +18169,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>110</v>
       </c>
@@ -18231,7 +18234,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>111</v>
       </c>
@@ -18296,7 +18299,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>112</v>
       </c>
@@ -18361,7 +18364,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>113</v>
       </c>
@@ -18426,7 +18429,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>114</v>
       </c>
@@ -18491,7 +18494,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>115</v>
       </c>
@@ -18556,7 +18559,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>116</v>
       </c>
@@ -18621,7 +18624,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>117</v>
       </c>
@@ -18686,7 +18689,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>118</v>
       </c>
@@ -18751,7 +18754,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>119</v>
       </c>
@@ -18816,7 +18819,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>120</v>
       </c>
@@ -18881,7 +18884,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>121</v>
       </c>
@@ -18946,7 +18949,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>174</v>
       </c>
@@ -19011,7 +19014,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>176</v>
       </c>
@@ -19076,7 +19079,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>177</v>
       </c>
@@ -19141,7 +19144,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>178</v>
       </c>
@@ -19206,7 +19209,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>179</v>
       </c>
@@ -19271,7 +19274,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>180</v>
       </c>
@@ -19336,7 +19339,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>181</v>
       </c>
@@ -19401,7 +19404,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>182</v>
       </c>
@@ -19466,7 +19469,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>183</v>
       </c>
@@ -19531,7 +19534,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>184</v>
       </c>
@@ -19596,7 +19599,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>185</v>
       </c>
@@ -19661,7 +19664,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>186</v>
       </c>
@@ -19726,7 +19729,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>187</v>
       </c>
@@ -19791,7 +19794,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>188</v>
       </c>
@@ -19856,7 +19859,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>189</v>
       </c>
@@ -19921,7 +19924,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>190</v>
       </c>
@@ -19986,7 +19989,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>191</v>
       </c>
@@ -20051,7 +20054,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>192</v>
       </c>
@@ -20116,7 +20119,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>193</v>
       </c>
@@ -20181,7 +20184,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>194</v>
       </c>
@@ -20246,7 +20249,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>195</v>
       </c>
@@ -20311,7 +20314,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>196</v>
       </c>
@@ -20376,32 +20379,32 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="R143" s="7"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="R144" s="7"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="R145" s="7"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="R146" s="7"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R147" s="7"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R148" s="7"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R149" s="7"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R150" s="7"/>
     </row>
   </sheetData>
@@ -20418,7 +20421,7 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -20436,7 +20439,7 @@
         <v>1.00727646677</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -20444,7 +20447,7 @@
         <v>1.0078250399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -20452,7 +20455,7 @@
         <v>14.003074005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -20460,7 +20463,7 @@
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -20468,7 +20471,7 @@
         <v>30.973761511999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -20476,7 +20479,7 @@
         <v>31.972070689999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -20484,7 +20487,7 @@
         <v>22.98977</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -20492,7 +20495,7 @@
         <v>34.968852707000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -20500,7 +20503,7 @@
         <v>38.963706860999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -20508,7 +20511,7 @@
         <v>5.4857990924000002E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -20516,7 +20519,7 @@
         <v>23.985045</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -20524,7 +20527,7 @@
         <v>27.97692649</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -20532,9 +20535,9 @@
         <v>2.0141019999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15">
         <v>13.003355000000001</v>
@@ -20548,16 +20551,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="167.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="167.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20605,27 +20608,27 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -20636,7 +20639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>42327</v>
       </c>
@@ -20647,7 +20650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>42328</v>
       </c>
@@ -20658,7 +20661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>42329</v>
       </c>
@@ -20669,7 +20672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>42344</v>
       </c>
@@ -20680,7 +20683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>42344</v>
       </c>
@@ -20691,7 +20694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>42371</v>
       </c>
@@ -20702,7 +20705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>42607</v>
       </c>
@@ -20713,7 +20716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>42624</v>
       </c>
@@ -20724,7 +20727,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>42709</v>
       </c>
@@ -20735,7 +20738,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>42719</v>
       </c>
@@ -20746,7 +20749,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>42758</v>
       </c>
@@ -20757,7 +20760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>42758</v>
       </c>
@@ -20768,7 +20771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>42758</v>
       </c>
@@ -20779,7 +20782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>42758</v>
       </c>
@@ -20790,7 +20793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>42758</v>
       </c>
@@ -20801,7 +20804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>42759</v>
       </c>
@@ -20812,7 +20815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>42759</v>
       </c>
@@ -20823,7 +20826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>42760</v>
       </c>
@@ -20834,7 +20837,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>42769</v>
       </c>
@@ -20845,7 +20848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>42779</v>
       </c>
@@ -20856,7 +20859,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>42964</v>
       </c>
@@ -20865,6 +20868,17 @@
       </c>
       <c r="C38" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>42965</v>
+      </c>
+      <c r="B39" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
